--- a/data/trans_camb/P1408-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1408-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.2310745914824441</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8358781936468866</v>
+        <v>0.8358781936468869</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.6431024569538422</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.438065043426924</v>
+        <v>-4.79750048027958</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.79596002698523</v>
+        <v>-4.049752733510033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.868607833258771</v>
+        <v>-5.1572955169852</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4216227586020808</v>
+        <v>-0.1393039937122018</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9334072923970951</v>
+        <v>-1.165861117732905</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.5293475040595629</v>
+        <v>-0.4836694872081526</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.58297663154736</v>
+        <v>-2.235080245377604</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.054951836992464</v>
+        <v>-2.113311693883761</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.219253632274083</v>
+        <v>-2.238079359892265</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02592733838105325</v>
+        <v>0.3273955972630883</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.727338816835317</v>
+        <v>1.858935399383995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2072831204615431</v>
+        <v>0.1330987870055358</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.237217846316492</v>
+        <v>3.598181981232875</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.244971358746913</v>
+        <v>1.269759508564861</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.785926889893291</v>
+        <v>1.85847331510573</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8941561758884041</v>
+        <v>1.004066201099203</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.224584127015631</v>
+        <v>1.037005469703413</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5782882045933554</v>
+        <v>0.555441382272901</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2989593785854596</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5888329451271359</v>
+        <v>-0.5888329451271358</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>2.61521270530115</v>
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.9232292865117113</v>
+        <v>-0.9226108350581046</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7848979071697062</v>
+        <v>-0.8025502104888125</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8859185424439486</v>
+        <v>-0.878868672911735</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.8212296145333517</v>
+        <v>-0.783764917708723</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7493676930412564</v>
+        <v>-0.7337621480176373</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7330439450593034</v>
+        <v>-0.7118360586225011</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2353199021157635</v>
+        <v>0.4616779049886484</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.114307259816458</v>
+        <v>1.163568515864812</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1983129763790223</v>
+        <v>0.291112059843103</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>0.8757002548292939</v>
+        <v>0.9272525308994229</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.167372049714647</v>
+        <v>1.033376615918605</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5176599117766093</v>
+        <v>0.5469809463237395</v>
       </c>
     </row>
     <row r="10">
@@ -857,7 +857,7 @@
         <v>-2.235830674895335</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.80380156737256</v>
+        <v>-1.803801567372559</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.087849062282771</v>
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.587977638655425</v>
+        <v>-4.461516618949539</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.006195997912636</v>
+        <v>-4.93182165835095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.573399069451624</v>
+        <v>-5.645607091073844</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.467331158047112</v>
+        <v>-4.570131804728248</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.57352055780341</v>
+        <v>-4.298116397079033</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.80744836419938</v>
+        <v>-3.785468078516768</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.840463532927146</v>
+        <v>-3.701250461398226</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.971154621193526</v>
+        <v>-3.79208390378589</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.008210118076875</v>
+        <v>-3.993144371081842</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8136121437282164</v>
+        <v>0.932877063014384</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08411417005316819</v>
+        <v>0.04285689417235452</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.806741132174847</v>
+        <v>-0.6399359066878768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.7438213096449857</v>
+        <v>-0.700441850670936</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.5201139925502697</v>
+        <v>-0.3367422184476826</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1043049907224987</v>
+        <v>-0.1268629987961846</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.5079981385302635</v>
+        <v>-0.5952350930378907</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.6679616425252519</v>
+        <v>-0.7800252216484862</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.9019958955859011</v>
+        <v>-0.9775488555670562</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +962,7 @@
         <v>-0.6022508900322918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.485878072785016</v>
+        <v>-0.4858780727850159</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.484990753049171</v>
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6932409323531602</v>
+        <v>-0.6734778192269685</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7561401945838657</v>
+        <v>-0.7292590448206904</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8346363429409684</v>
+        <v>-0.8113309112935788</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8859691247081483</v>
+        <v>-0.8838192416055016</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8792567361245593</v>
+        <v>-0.8400126375722903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7483821646164863</v>
+        <v>-0.7502597437583022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7073333953956151</v>
+        <v>-0.7074327744811871</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7347372187161626</v>
+        <v>-0.7229651383704336</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7334381919800114</v>
+        <v>-0.7353032595810111</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2498771678164569</v>
+        <v>0.3775322364468792</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06469040784717389</v>
+        <v>0.06003215403163739</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2112055271050601</v>
+        <v>-0.1048823959340956</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.175012876132238</v>
+        <v>-0.1726476331600424</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.06945753915144974</v>
+        <v>0.01138861383795868</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1087425802073887</v>
+        <v>0.005006518985248512</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1042855165529162</v>
+        <v>-0.1011695224382569</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1534008339414552</v>
+        <v>-0.185859238674867</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.23074609432313</v>
+        <v>-0.2719093060205162</v>
       </c>
     </row>
     <row r="16">
@@ -1071,7 +1071,7 @@
         <v>0.09568466737673431</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.292036203785297</v>
+        <v>2.292036203785296</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.5501778145603518</v>
@@ -1080,7 +1080,7 @@
         <v>-1.286557774320508</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.7479252481188147</v>
+        <v>0.7479252481188127</v>
       </c>
     </row>
     <row r="17">
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.799178787114512</v>
+        <v>-4.788269342888797</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.272186754443108</v>
+        <v>-5.566055065052674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.844137432464168</v>
+        <v>-3.931251963369327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.141496024767998</v>
+        <v>-0.9938392168982719</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.29846574866484</v>
+        <v>-1.36538024031139</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5468505654928044</v>
+        <v>0.4982678385695739</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.158982440648328</v>
+        <v>-2.349752745940021</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.778822085160698</v>
+        <v>-2.859617345810028</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.8934654570619255</v>
+        <v>-0.880393873568651</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.693937146732248</v>
+        <v>0.988599450363629</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.3629973805859087</v>
+        <v>-0.5435922046193564</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.510502081645203</v>
+        <v>1.603928630774738</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.459532785739725</v>
+        <v>2.251778362163291</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.775713954157486</v>
+        <v>1.703405990279946</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.881640729415577</v>
+        <v>3.967975691002219</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.122854071490814</v>
+        <v>0.9178240552042395</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04156467156151361</v>
+        <v>0.08027428308333862</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.310046209389387</v>
+        <v>2.300165225553732</v>
       </c>
     </row>
     <row r="19">
@@ -1176,7 +1176,7 @@
         <v>0.1040278424944665</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.491889115945941</v>
+        <v>2.49188911594594</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.22315445282643</v>
@@ -1185,7 +1185,7 @@
         <v>-0.5218332847308751</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.303361649782986</v>
+        <v>0.3033616497829851</v>
       </c>
     </row>
     <row r="20">
@@ -1196,29 +1196,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8155522286141175</v>
+        <v>-0.7953268528739632</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9089122317203046</v>
+        <v>-0.9087454169781418</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6528783899334211</v>
+        <v>-0.6582072459969471</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8379616985917615</v>
+        <v>-0.7807842369754358</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>0.1512919919245734</v>
+        <v>0.08026355827177792</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6483055810365558</v>
+        <v>-0.6737106968683971</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8047044421413325</v>
+        <v>-0.8363147246160222</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2675128173316129</v>
+        <v>-0.2526325776899575</v>
       </c>
     </row>
     <row r="21">
@@ -1229,31 +1229,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4050907807291245</v>
+        <v>0.5949909038141159</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.03668790199142808</v>
+        <v>-0.03755389337320932</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6908531691438357</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.696100304332619</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>8.266454846790362</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>12.47433062645106</v>
+        <v>13.15473382797374</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7073445010124451</v>
+        <v>0.6369031507949974</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.120586109719756</v>
+        <v>0.1373711055109509</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.382696495870481</v>
+        <v>1.567930740379074</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1281,7 @@
         <v>-0.333865575050581</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.624462345944692</v>
+        <v>1.624462345944693</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.2232514159828083</v>
@@ -1292,7 +1290,7 @@
         <v>-0.9947512251487975</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.6124758571796403</v>
+        <v>0.6124758571796396</v>
       </c>
     </row>
     <row r="23">
@@ -1303,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.172744481331724</v>
+        <v>-4.16520902528577</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.293938270771446</v>
+        <v>-4.489342155487728</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.269406388922526</v>
+        <v>-3.189690291781746</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.171823603100578</v>
+        <v>-1.137664820338755</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.078307935403544</v>
+        <v>-2.004525583744179</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.3332151017074894</v>
+        <v>-0.3680914830008681</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.947001753789872</v>
+        <v>-2.067303371035758</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.618022518421803</v>
+        <v>-2.647156938700034</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.19851441883654</v>
+        <v>-1.037696588624486</v>
       </c>
     </row>
     <row r="24">
@@ -1338,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.464020441661739</v>
+        <v>1.389430524449644</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6896964466943122</v>
+        <v>0.7879532048080488</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.602756884250048</v>
+        <v>2.69424337960208</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.026076542913958</v>
+        <v>3.154331464033271</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.378883990643949</v>
+        <v>1.548975105324518</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.492805437709907</v>
+        <v>4.58812120510767</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.774107025430593</v>
+        <v>1.404420439739251</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.567472233031811</v>
+        <v>0.5372311120464263</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.556667703291962</v>
+        <v>2.773373773836804</v>
       </c>
     </row>
     <row r="25">
@@ -1388,7 +1386,7 @@
         <v>-0.1977469496445406</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.962161114317672</v>
+        <v>0.9621611143176724</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.07568503897231121</v>
@@ -1397,7 +1395,7 @@
         <v>-0.3372331813068487</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2076370217683655</v>
+        <v>0.2076370217683653</v>
       </c>
     </row>
     <row r="26">
@@ -1408,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7456854764238005</v>
+        <v>-0.7300899324504735</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7274288399519919</v>
+        <v>-0.7602138024612102</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5798657516953585</v>
+        <v>-0.5825691058955899</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5109348137655294</v>
+        <v>-0.4793894742362422</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8290268839960557</v>
+        <v>-0.8022443256432839</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2811476498735699</v>
+        <v>-0.287686278261589</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5222052488701975</v>
+        <v>-0.5422643487391554</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6755286915959537</v>
+        <v>-0.6866698013081876</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3357607901336274</v>
+        <v>-0.3018566034488552</v>
       </c>
     </row>
     <row r="27">
@@ -1443,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6054474699106374</v>
+        <v>0.5950257332234267</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3040304838240139</v>
+        <v>0.3651808318557827</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9790957273288283</v>
+        <v>0.9400885766277389</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.044842016314889</v>
+        <v>4.244567892229465</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.106171269704828</v>
+        <v>2.206518337132706</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.465453713462481</v>
+        <v>5.562085234089164</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8569436597008516</v>
+        <v>0.6642881070282848</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3494871455253339</v>
+        <v>0.3028873832838902</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.137423112803292</v>
+        <v>1.342451145467118</v>
       </c>
     </row>
     <row r="28">
@@ -1517,31 +1515,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.870693999025125</v>
+        <v>-6.093520574113001</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.417780911928654</v>
+        <v>-5.674584058373936</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.78003290461486</v>
+        <v>-5.898491404091456</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.81921169940442</v>
+        <v>-7.315149666828595</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.551653855382318</v>
+        <v>-6.694638037091541</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.723072813790982</v>
+        <v>-6.591798297597736</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.45247548371483</v>
+        <v>-5.511193645761569</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.773223056376863</v>
+        <v>-5.366127539180389</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.057365742084728</v>
+        <v>-4.845947597099229</v>
       </c>
     </row>
     <row r="30">
@@ -1552,31 +1550,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.253823490061051</v>
+        <v>0.4480400991800633</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.102403618417056</v>
+        <v>0.9954083644941457</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4621957220432995</v>
+        <v>0.3139180755458311</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.454261562453995</v>
+        <v>-1.380221511673935</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.5443864203902204</v>
+        <v>-0.7512145822947027</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.1482564335005061</v>
+        <v>-0.2295525342253752</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.322247360218729</v>
+        <v>-1.26638578805852</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.4914126444527043</v>
+        <v>-0.3869483426290254</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.5331091436836828</v>
+        <v>-0.5614540965231488</v>
       </c>
     </row>
     <row r="31">
@@ -1611,7 +1609,7 @@
         <v>-0.6327284903698024</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.6036515079060661</v>
+        <v>-0.603651507906066</v>
       </c>
     </row>
     <row r="32">
@@ -1625,10 +1623,10 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8747719134347194</v>
+        <v>-0.8933195805744809</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8625598016586457</v>
+        <v>-0.8972682031651217</v>
       </c>
       <c r="F32" s="6" t="n">
         <v>-1</v>
@@ -1637,16 +1635,16 @@
         <v>-1</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8862942620819928</v>
+        <v>-0.8786060277490125</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.9465554280599875</v>
+        <v>-0.9352194280862164</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8513983409201449</v>
+        <v>-0.8703093010296638</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8167287635773771</v>
+        <v>-0.8022455255660623</v>
       </c>
     </row>
     <row r="33">
@@ -1657,31 +1655,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.370312233996565</v>
+        <v>0.5074625693936762</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5212120551919117</v>
+        <v>0.6896266836439447</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4250491838364092</v>
+        <v>0.2247632278537381</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.07799115334157308</v>
+        <v>-0.08442545468261002</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3714884502578182</v>
+        <v>0.0619390299165468</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05170939917514244</v>
+        <v>-0.05000077533159267</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.2600945282244065</v>
+        <v>-0.279560584985743</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.057866054667826</v>
+        <v>-0.02878486871783836</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1795611620427805</v>
+        <v>-0.1452795788163483</v>
       </c>
     </row>
     <row r="34">
@@ -1731,31 +1729,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.5775739038372595</v>
+        <v>-0.2780451149659325</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.914676668707885</v>
+        <v>-2.774032499898894</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.2642458431148842</v>
+        <v>0.2228946038843086</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.082387213882677</v>
+        <v>-2.389193391423228</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.62185730123001</v>
+        <v>-1.677709875173064</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.2054684385287076</v>
+        <v>0.26311625314813</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.4902903824906725</v>
+        <v>-0.5540750745724894</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.606531602438421</v>
+        <v>-1.689002683372571</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.8834052781156476</v>
+        <v>0.7688013001418293</v>
       </c>
     </row>
     <row r="36">
@@ -1766,31 +1764,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.855722490551983</v>
+        <v>6.613134018830483</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.51743729341154</v>
+        <v>1.582360814945201</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.78552701695115</v>
+        <v>5.315864204313679</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.360943515240245</v>
+        <v>1.377020854318511</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.582275385897941</v>
+        <v>2.575551612499639</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.362400529457214</v>
+        <v>4.421388992541417</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.128842888310218</v>
+        <v>3.35683851160786</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.420342312268647</v>
+        <v>1.388676550591741</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.997374826714832</v>
+        <v>4.029679076081149</v>
       </c>
     </row>
     <row r="37">
@@ -1836,27 +1834,29 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3151260257611664</v>
+        <v>-0.240443566974135</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8923152305447329</v>
+        <v>-0.8626327528496391</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1373105894536251</v>
+        <v>-0.01815895592521963</v>
       </c>
       <c r="F38" s="6" t="inlineStr"/>
-      <c r="G38" s="6" t="inlineStr"/>
+      <c r="G38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1433248872283217</v>
+        <v>-0.1013472039442987</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2917739127492157</v>
+        <v>-0.2927390839136274</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6809793727533189</v>
+        <v>-0.70522711602003</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2496965506424571</v>
+        <v>0.2022448980317114</v>
       </c>
     </row>
     <row r="39">
@@ -1867,27 +1867,25 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>5.140206576983164</v>
+        <v>7.665314164524192</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.639639430060175</v>
+        <v>1.76926412775064</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.653282095449767</v>
+        <v>6.67913895081521</v>
       </c>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="n">
-        <v>10.39064517074038</v>
-      </c>
+      <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="n">
-        <v>3.337116821336165</v>
+        <v>3.513547080083356</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.829241819934315</v>
+        <v>1.595872714311411</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4.92564101202253</v>
+        <v>4.724247090542869</v>
       </c>
     </row>
     <row r="40">
@@ -1908,7 +1906,7 @@
         <v>-2.691593106189131</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.841598016123537</v>
+        <v>-1.841598016123538</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-2.27882979614115</v>
@@ -1926,7 +1924,7 @@
         <v>-2.265345829071075</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.9522046945281359</v>
+        <v>-0.9522046945281353</v>
       </c>
     </row>
     <row r="41">
@@ -1937,31 +1935,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.261789163069146</v>
+        <v>-5.156727143635431</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.906526732573491</v>
+        <v>-4.634414372966303</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.038493154588915</v>
+        <v>-3.892924782045839</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.037778366810534</v>
+        <v>-4.102424065306814</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.520881682201391</v>
+        <v>-3.867061677076917</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.93275865916867</v>
+        <v>-2.182806315733198</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.184694896926192</v>
+        <v>-3.940438986914734</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.678278360219997</v>
+        <v>-3.479340080996903</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.37769230396494</v>
+        <v>-2.305036721228837</v>
       </c>
     </row>
     <row r="42">
@@ -1972,31 +1970,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-1.737022308745875</v>
+        <v>-1.555893994267167</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.932379030618202</v>
+        <v>-0.8017328142660287</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.06663248294553015</v>
+        <v>0.06405863567139887</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.8369758717048037</v>
+        <v>-0.7527492513359918</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.2439743169483752</v>
+        <v>-0.2569150807083723</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.89942418581634</v>
+        <v>1.857819003267388</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-1.774965939000309</v>
+        <v>-1.572439759040272</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.026625907983059</v>
+        <v>-1.007991297663969</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.4455364373056435</v>
+        <v>0.410051190579509</v>
       </c>
     </row>
     <row r="43">
@@ -2013,7 +2011,7 @@
         <v>-0.6075543699363177</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4156909600448681</v>
+        <v>-0.4156909600448682</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.6824984138935979</v>
@@ -2031,7 +2029,7 @@
         <v>-0.584683260746204</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.2457629817708006</v>
+        <v>-0.2457629817708004</v>
       </c>
     </row>
     <row r="44">
@@ -2042,31 +2040,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.9082345223346203</v>
+        <v>-0.8976441268360713</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8265047180133746</v>
+        <v>-0.824408082450914</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7023358663337721</v>
+        <v>-0.6765949068110669</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.8801217520824639</v>
+        <v>-0.8858389262289527</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7812015305250096</v>
+        <v>-0.8225272368999942</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4343445271639342</v>
+        <v>-0.4764201642557048</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.8516954822456219</v>
+        <v>-0.861225164103864</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.7659428846300939</v>
+        <v>-0.768041371597003</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5010625311861907</v>
+        <v>-0.5039903856508821</v>
       </c>
     </row>
     <row r="45">
@@ -2077,31 +2075,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.4666200326524351</v>
+        <v>-0.4198133301868197</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1971785875009758</v>
+        <v>-0.2167908583350306</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.004025106650989698</v>
+        <v>0.07564851284741805</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.2713861592123284</v>
+        <v>-0.2637037914436782</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.04651206669649418</v>
+        <v>-0.03898039242522672</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7833121644552458</v>
+        <v>0.7966833397807861</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.504395849568727</v>
+        <v>-0.489347233601335</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2923654696610107</v>
+        <v>-0.3075385745240629</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1790552601826745</v>
+        <v>0.132773165650558</v>
       </c>
     </row>
     <row r="46">
@@ -2151,31 +2149,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.686800919001385</v>
+        <v>-4.777684106021654</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.667750077496758</v>
+        <v>-4.738686386448658</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.179451727994008</v>
+        <v>-4.391295259143891</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-4.527636585197734</v>
+        <v>-4.611363974318127</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.96394147426635</v>
+        <v>-4.055497181199347</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.206989386816606</v>
+        <v>-3.213755359970612</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.161791269582807</v>
+        <v>-4.154171851891593</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.909610869759245</v>
+        <v>-3.842418379659362</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.341288014745954</v>
+        <v>-3.286129673845953</v>
       </c>
     </row>
     <row r="48">
@@ -2186,31 +2184,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.116719002103521</v>
+        <v>-1.029930723519351</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.263401748394946</v>
+        <v>-1.330275797861013</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.7457547280765592</v>
+        <v>-0.7815376639903295</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-1.701255345541278</v>
+        <v>-1.587975475911908</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.8622296688256602</v>
+        <v>-0.8704796130397614</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.01631672656583214</v>
+        <v>-0.04793162304983836</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.900643922046225</v>
+        <v>-1.770238829643699</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.483995442095705</v>
+        <v>-1.482317224831134</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.8451471609774432</v>
+        <v>-0.7814523472226862</v>
       </c>
     </row>
     <row r="49">
@@ -2256,31 +2254,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8451783536621209</v>
+        <v>-0.8475965216618649</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8312474910695852</v>
+        <v>-0.8246755933758462</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7383535770792666</v>
+        <v>-0.7590249753674628</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.9364776975946257</v>
+        <v>-0.9339999291385462</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.8473511671097992</v>
+        <v>-0.8521301744133256</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6565526318843858</v>
+        <v>-0.6588526166512935</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.8640718302532961</v>
+        <v>-0.8643001049466708</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.7897766264247119</v>
+        <v>-0.7910161740366349</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.6564779965932495</v>
+        <v>-0.6465027832482143</v>
       </c>
     </row>
     <row r="51">
@@ -2291,31 +2289,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2980608676868499</v>
+        <v>-0.2601624194124469</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3465298992033039</v>
+        <v>-0.3294199356988014</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.124666349133129</v>
+        <v>-0.2136553342245162</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.5334729127451399</v>
+        <v>-0.535815366508066</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.2391399521326167</v>
+        <v>-0.2664709679947538</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.01705981082611144</v>
+        <v>0.01567168553708</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.5511680315589654</v>
+        <v>-0.5189471594136694</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.4399624960863836</v>
+        <v>-0.4274962916122488</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2526870954070204</v>
+        <v>-0.2112081575553226</v>
       </c>
     </row>
     <row r="52">
@@ -2345,7 +2343,7 @@
         <v>-1.424553379010153</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-0.1384157104017875</v>
+        <v>-0.1384157104017871</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-1.755446228643095</v>
@@ -2365,31 +2363,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.839073227062439</v>
+        <v>-2.844876087841123</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-3.048983635989987</v>
+        <v>-3.032021684054804</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.455672240327479</v>
+        <v>-2.468683164883102</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-2.195951871627019</v>
+        <v>-2.184188936674239</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.098025572546664</v>
+        <v>-2.074076923867141</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.8545033931340507</v>
+        <v>-0.9620874918618572</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.34726667123902</v>
+        <v>-2.315079263773216</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-2.405690714875523</v>
+        <v>-2.356586200568994</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-1.405525181994439</v>
+        <v>-1.408715502084063</v>
       </c>
     </row>
     <row r="54">
@@ -2400,31 +2398,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-1.051761721500196</v>
+        <v>-1.122225537361397</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-1.314679032154568</v>
+        <v>-1.398805609381905</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.7569354939570315</v>
+        <v>-0.6610503185879799</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-0.8105465701936914</v>
+        <v>-0.8686148296381822</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.7589896527042373</v>
+        <v>-0.7422316651172713</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.5639701711512419</v>
+        <v>0.5634753754440762</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-1.221078587049136</v>
+        <v>-1.236309999248261</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-1.215259927873668</v>
+        <v>-1.280069301420007</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-0.309242239776595</v>
+        <v>-0.3023812972469655</v>
       </c>
     </row>
     <row r="55">
@@ -2450,7 +2448,7 @@
         <v>-0.5259056880642888</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.05109925011608889</v>
+        <v>-0.05109925011608876</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.5134519661145616</v>
@@ -2470,31 +2468,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.6247367226609349</v>
+        <v>-0.6116875109172697</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.639895684001215</v>
+        <v>-0.6431975052192681</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.5298607350588558</v>
+        <v>-0.5343137853656731</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.6944101126534027</v>
+        <v>-0.6937691111238621</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.6717647741113968</v>
+        <v>-0.6767710738718987</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2778294352060854</v>
+        <v>-0.2942158710242437</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.6163973152408745</v>
+        <v>-0.6232458573156472</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.6242325780362358</v>
+        <v>-0.6271317737648866</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3675939134686256</v>
+        <v>-0.3742493062398684</v>
       </c>
     </row>
     <row r="57">
@@ -2505,31 +2503,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.3044117364497139</v>
+        <v>-0.2945193688919965</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.3546139250278754</v>
+        <v>-0.356271803756948</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.2097492726307657</v>
+        <v>-0.1868131019528512</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.3427644296544007</v>
+        <v>-0.3627069936990436</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.3194606460353929</v>
+        <v>-0.3227056891162917</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2430580083762759</v>
+        <v>0.2596848252464196</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.3881555946214793</v>
+        <v>-0.3880590863896671</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.3876596527567683</v>
+        <v>-0.3995365411364978</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.09695645767305783</v>
+        <v>-0.09582347098260582</v>
       </c>
     </row>
     <row r="58">
